--- a/main code/data/클리앙.xlsx
+++ b/main code/data/클리앙.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,17 +458,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>출시 준비중입니다. LTE라우터...</t>
+          <t>오늘부로 얀더나 됐습니다</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021.12.28 15:45</t>
+          <t>2021.12.29 16:38</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -480,17 +480,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>이제 다음은 김종인차례일려나요</t>
+          <t>유치원은 방학... 육아가 너무 힘드네요 ㅎㅎㅎ</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021.12.28 15:44</t>
+          <t>2021.12.29 16:36</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>233</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -502,83 +502,83 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>이준석은 정보처리기사 자격증 공개했네요?</t>
+          <t>있는 죄도 덮어 줄 수 있는 권력</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021.12.28 15:44</t>
+          <t>2021.12.29 16:35</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>348</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>이재명 후보 아들 입시 특혜의혹에 대한 언론의 태도</t>
+          <t>갤럭시 s20u 액정교체 30만원 ㅠㅠ</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021.12.28 15:44</t>
+          <t>2021.12.29 16:34</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>506</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>수정아,이브날에 뭐해!?!</t>
+          <t>경북 울진에 구름처럼 모인 윤석열 지지 인파</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021.12.28 15:44</t>
+          <t>2021.12.29 16:33</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>1484</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>빽다방 사라다빵.... 맛이가 부족하네여..</t>
+          <t>주요후보 선거캠프 근황(jpg)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021.12.28 15:43</t>
+          <t>2021.12.29 16:33</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>780</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -590,39 +590,39 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3차접종 (아-화-화) 입니다!</t>
+          <t>SNL 신혜선 정말 프로네요 ㄷㄷ.youtube</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021.12.28 15:42</t>
+          <t>2021.12.29 16:33</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>1801</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>세탁기안에 화로 만들기gif</t>
+          <t>尹 영부인 폐지 기사에 올라온 베스트 댓글</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021.12.28 15:42</t>
+          <t>2021.12.29 16:31</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>808</t>
+          <t>2163</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -634,479 +634,479 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>협조해주셔서감사합니다.gif</t>
+          <t>카드명세서의 비밀.txt</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021.12.28 15:40</t>
+          <t>2021.12.29 16:30</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>1587</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>비단 주머니 vs 캐비넷</t>
+          <t>오큘러스 안면폼 잊고 있었는데.. 저는 누락되었나보네요..;</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 16:30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>899</t>
+          <t>534</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>(녹취)김건희... 왜 묻냐... 저는 악마....youtube</t>
+          <t>공유기 설치했습니다.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 16:30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>719</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>화재확산차단.gif</t>
+          <t>에어팟으로 인해 세상이 바뀐건 맞다고 생각합니다.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 16:30</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1351</t>
+          <t>1240</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>19</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>토론 마무리 발언을 위해 원고지 찾는 윤석열</t>
+          <t>엄청난 댓글 ㅎㄷㄷ</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 16:29</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>976</t>
+          <t>2531</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>용석이 쎄게 나오네요.fb</t>
+          <t>저도 슬로건을 한번 생각해봤는데 어떨까용</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 16:28</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>205</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>볶음밥에 간짜장을 올려주는 집</t>
+          <t>코로나19 확진자, 사망자 일주일 평균선을 겹쳐봤습니다.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 16:27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1183</t>
+          <t>1175</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>설강화로 미개한 대중들이 표현의 자유를 침해한다는 웃기네요ㅋㅋㅋ</t>
+          <t>먀약사범 검거영상, 창문깨는 경찰뒤에서 다른 경찰이 발사하는 아찔상황</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 16:27</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>1089</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>우리나라 성인지 예산이 미국 나사 보다 많군요? 퍼몸</t>
+          <t>강용석이 진짜 어이없는 게</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 16:27</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>867</t>
+          <t>2401</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>V30 떨어뜨렸습니다.</t>
+          <t>카카오톡에 말대꾸콘 심사 떨어졌다는군요</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 16:26</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>1703</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>준석이는 이미 끝난거 같은데요.</t>
+          <t>이거 저만 그런가요?.jpg</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 16:26</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2125</t>
+          <t>1538</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>동심의팀웤.gif</t>
+          <t>누나랑 손잡고 다녔던 분 있나요?</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 16:26</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>926</t>
+          <t>1280</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>눈쌓인 도로의 드리프트 묘기 gif</t>
+          <t>제가 파이썬으로 프로그래밍 독학을 중1 때 시작했는데...</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 16:25</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1359</t>
+          <t>1075</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>겨울철 도로가 얼면 위험합니다.gif</t>
+          <t>독일 사람이 거만한 이유</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 16:25</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1875</t>
+          <t>2665</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>아이큐에어 필터교체 비용 ㄷㄷ</t>
+          <t>'한자' 이야기에 생각을 해 보다 최근 경험에 비추어 결론을 내렸습니다</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 16:24</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>891</t>
+          <t>251</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>(만화) 8살 연하인 남자에게 고백을 받았는데 어떻게 해야할까?</t>
+          <t>윤석열 '전두환 발언, 민주당 후보였다면 괜찮았을텐데 국민의힘 소속이라...'</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 16:24</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2192</t>
+          <t>973</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>엠브레인 여론조사 참여했습니다.</t>
+          <t>펌)) 요새 인싸들 유행어 근황 ㄷㄷㄷ</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 16:22</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>3746</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>갸웃 댕댕이 gif</t>
+          <t>내가 헛되이 보낸 오늘은 어제 죽은 이가 그토록 바라던 내일이다</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 16:22</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>969</t>
+          <t>410</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>어제 한 중국집에서 본 진상 아줌마...</t>
+          <t>저쪽이 홍준표만 냈어도 이번 대선 모르는 일이었다는 것이...</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 16:21</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2181</t>
+          <t>1569</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>윤석열 이준석 한짤정리?</t>
+          <t>[KBO] 히어로즈 원년팬이었는데 이제 탈퇴합니다</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 16:20</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2177</t>
+          <t>897</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>집사보다 잘생긴 고니 얼굴샷</t>
+          <t>슬로건 선정 방식에 대한 추측</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 16:19</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1145</t>
+          <t>285</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>윤석열과의 토론도 중요하긴 합니다만</t>
+          <t>윈도우 11 클린설치 중입니다…</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 16:17</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>763</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1118,281 +1118,281 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>윤석렬이 영부인이란 말을 싫어 할만합니다.</t>
+          <t>연합) '다이어트 성공' 김정은, 살 더 빠졌나..셔츠 목둘레도 헐렁</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 16:17</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>2275</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>탕수육과 볶음밥</t>
+          <t>여자친구와의 대화에서 다른 여자 외모 칭찬은 금기 맞죠?</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 16:17</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>740</t>
+          <t>1609</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>26</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>애플이 여러 사람에게 원수진 듯하네요.</t>
+          <t>한자 좋아하시는 분이라면 재미있을 사이트.jpg</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 16:16</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>1613</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>올해 의류 구매비용 총 얼마정도 되세요?</t>
+          <t>돈룩업 이동진 별점과 한줄 평.jpg</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 16:16</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>3295</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>근데 이준석 날리는거 너무 프로의 냄새가 나는데요.</t>
+          <t>홍준표의 팩폭 반박불가네요 ㅎㅎ</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 16:16</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1929</t>
+          <t>3328</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>[단독]이준석 '김건희 사과 후 尹 지지율 하락세 둔화, 반등 올 것'</t>
+          <t>김학의 출국금지시킨 이규원 검사 기소에 즈음하여</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 16:15</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2557</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>김경수 지사님에게 영치금 보내고 왔습니다.</t>
+          <t>딴지) 준스톤 나비효과</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 16:15</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1288</t>
+          <t>3210</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>유잼도시를 위한 대전의 노력.jpg</t>
+          <t>'허위경력 의혹' 김건희 사건…고발인 '전형적 사기죄' [뉴시스]</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 16:14</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1856</t>
+          <t>940</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>우리 준석이 살리는 방법 생각났습니다.(뻘글)</t>
+          <t>나비효과 레젼드 랍니다 ㅎㅎ</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2021.12.28 15:26</t>
+          <t>2021.12.29 16:14</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1247</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>준스톤 정치인생의 최대 선택의 기로에 있군요.</t>
+          <t>국민의짐 윤리위원회 자기들 당대표 성상납의혹 조사 가능한가요? ㅋㅋㅋ</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 16:13</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1585</t>
+          <t>614</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>속보] 5년 차 이상 민방위 대원 비상소집훈련 폐지</t>
+          <t>킹메이커가 연기되었군요 ㅜㅜ</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 16:13</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>3748</t>
+          <t>1100</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>진보 스피커들이 한때 이준석 당대표를 그렇게 띄웠는데..</t>
+          <t>아빠가 10살 딸에게 프로그래밍 언어를 가르치는데 c언어부터 가르치던데 왜 그런건가</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 16:12</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1042</t>
+          <t>2612</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>38</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>유애나 4기 활동 종료 얼마 안남았네요 ㅠㅠ</t>
+          <t>‘실력 중심 실용 정부’</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 16:11</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>684</t>
+          <t>1151</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1404,352 +1404,44 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>이준석 제1야당대표출신 현역이등병 가나요?</t>
+          <t>쿠팡 멤버십 가격 인상되면</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 16:11</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1320</t>
+          <t>2037</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>사실 이준석은 정치기반 없는 신인이죠</t>
+          <t>[우리가 언론사다][공포] 우리는.. 개돼지가 되는 건가요?</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 16:10</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>714</t>
+          <t>645</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>이런 혼종도 가능하군요</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:21</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>1800</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>거니는 8500만원도 떼먹고 있었네요</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:21</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>1451</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>중국에 선전시가 그렇게 근미래도시라고 하는데요</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:21</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>2467</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>아들에게 잔인한 아버지</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:20</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>2650</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>이준석이 고소한다는군요</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:20</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>4155</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>1 day 1 I believe</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>839</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
           <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>퇴근하고 소주 한잔하고 싶읍니다</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>950</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>'영부인, 선진국에서도 안 쓰는 호칭'.... 아...나 참....</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>2509</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>최근 굳이 척척석사를 비판한 이유</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>1339</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>이준석 탄핵한다고 이야기 나온게 보름 전이죠</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:18</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>619</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>디시 보수갤러리 부관리자 또 런..</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:17</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>2236</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>어제 집앞에서 usb를 하나 주웠는데..</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:17</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>1811</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>갑자기 구글포토가 보여준 애들 편지..</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>1613</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>착한냥냥.gif</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>1333</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>5</t>
         </is>
       </c>
     </row>
